--- a/data_processed/20250821/BTCUSDVOLSURFACE_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDVOLSURFACE_20250821.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250821/BTCUSDVOLSURFACE_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDVOLSURFACE_20250821.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
